--- a/Software/multiplex_gui_log.xlsx
+++ b/Software/multiplex_gui_log.xlsx
@@ -413,14 +413,117 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>14:10:28</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>PBS on</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>14:10:28</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PBS off</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>14:22:20</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Cycle 0: baseline bleach image acquiring</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14:22:21</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cycle 0: establish fm array</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14:48:37</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Cycle 0: baseline bleach image acquiring</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14:48:37</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Cycle 0: establish fm array</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Software/multiplex_gui_log.xlsx
+++ b/Software/multiplex_gui_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,907 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15:40:43</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Cycle 0: baseline bleach image acquiring</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15:40:43</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cycle 0: establish fm array</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>15:41:31</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Cycle 1: Stain in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:42:31</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>15:43:31</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>15:44:31</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>15:45:31</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>15:46:31</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>15:47:32</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15:48:32</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>15:49:32</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>15:50:32</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>15:51:32</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>15:52:32</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>15:53:32</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>15:54:32</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>15:55:32</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>15:56:32</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>15:57:32</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>15:58:32</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>15:59:32</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>16:00:32</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16:01:32</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>16:02:32</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>16:03:32</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>16:04:32</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>16:05:32</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>16:06:32</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>16:07:32</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>16:08:32</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>16:09:32</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>16:10:32</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>16:11:32</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>16:12:32</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>16:13:32</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>16:14:32</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 32</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>16:15:32</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>16:16:32</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 34</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>16:17:32</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 35</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>16:18:32</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 36</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>16:19:32</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 37</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>16:20:32</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>16:21:32</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 39</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>16:22:32</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>16:23:32</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 41</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>16:24:32</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 42</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>16:25:32</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 43</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>16:26:32</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Cycle 1: staining time elapsed 44</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>16:28:53</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Cycle 1: washing in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>16:28:53</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Cycle 1: start PBS wash</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>16:30:13</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Cycle 1: PBS wash finished</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>16:30:13</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Cycle 1: stain image acquistion in progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Nov-16-2023</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>16:30:13</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Cycle 1: establish fm array</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
